--- a/myData/JHL beta gal data 3.5.xlsx
+++ b/myData/JHL beta gal data 3.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylee/Desktop/research/Jenny_MutantSensitivity/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F8AE7-0012-6845-9ADC-4A44F852590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2FEB29-FA2F-9E4F-B30F-3C953ACF7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="24920" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11560" yWindow="500" windowWidth="24920" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3580,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4779,8 +4779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/myData/JHL beta gal data 3.5.xlsx
+++ b/myData/JHL beta gal data 3.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylee/Desktop/research/Jenny_MutantSensitivity/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2FEB29-FA2F-9E4F-B30F-3C953ACF7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5B249-403D-0F46-A90F-318977898AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="500" windowWidth="24920" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="500" windowWidth="24920" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A79" sqref="A79:I135"/>
     </sheetView>
   </sheetViews>
@@ -3581,7 +3581,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4596,7 +4596,7 @@
         <v>100</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>100</v>
@@ -4758,7 +4758,7 @@
         <v>100</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>100</v>
